--- a/00.Notas/Notas.xlsx
+++ b/00.Notas/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\r-basic\00.Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D7C00-6A56-480F-8518-60863006ECEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860162B3-BEAE-4D38-BE0F-0B7BF74C7ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{F124C5C0-2923-4BF8-9E0A-32BEEF6C5942}">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{C4732944-7A5A-415C-908C-CBA347DB53A9}">
       <text>
         <r>
           <rPr>
@@ -85,6 +85,54 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Para comprobar la naturaleza de una variable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{DE55B22D-1EBA-4D22-B9AC-97F5DBBDB0C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Script 07-io</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{F124C5C0-2923-4BF8-9E0A-32BEEF6C5942}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 Parte entera de x, elimita la parte decimal</t>
         </r>
       </text>
@@ -94,10 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>R como calculadora</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Operaciones</t>
   </si>
@@ -160,13 +205,84 @@
   </si>
   <si>
     <t>cuadrado &lt;- function(x){x^2}</t>
+  </si>
+  <si>
+    <t>Trabajando con R</t>
+  </si>
+  <si>
+    <t>Trabajando con Python</t>
+  </si>
+  <si>
+    <t>Constantes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> math</t>
+    </r>
+  </si>
+  <si>
+    <t>Operaciones aritméticas y de redondeo</t>
+  </si>
+  <si>
+    <t>ceil, floor, trunc</t>
+  </si>
+  <si>
+    <t>copysign(x,y)</t>
+  </si>
+  <si>
+    <t>Copia el signo de "y"  en "x"</t>
+  </si>
+  <si>
+    <t>fabs</t>
+  </si>
+  <si>
+    <t>Potencia con n**m</t>
+  </si>
+  <si>
+    <t>factorial</t>
+  </si>
+  <si>
+    <t>Función valor absoluto</t>
+  </si>
+  <si>
+    <t>isfinite, isinf, isnan</t>
+  </si>
+  <si>
+    <t>pi, e, tau, exp, pow, sqrt</t>
+  </si>
+  <si>
+    <t>Operaciones de entrada y salida</t>
+  </si>
+  <si>
+    <t>print()</t>
+  </si>
+  <si>
+    <t>print( "cualquier texto " + str(x) )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +302,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -583,16 +707,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -600,115 +726,170 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/00.Notas/Notas.xlsx
+++ b/00.Notas/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\r-basic\00.Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860162B3-BEAE-4D38-BE0F-0B7BF74C7ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA8BEB-F01A-428B-A030-778816AE92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -73,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Carlos Daniel:</t>
         </r>
@@ -82,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Para comprobar la naturaleza de una variable</t>
@@ -97,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Carlos Daniel:</t>
         </r>
@@ -106,10 +106,53 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Script 07-io</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{1E2BD753-2A4E-4770-B90E-8BD09CE0C2F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A esto se le llama hacer un </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">casting, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>convertir una variable de un tipo a otro</t>
         </r>
       </text>
     </comment>
@@ -142,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Operaciones</t>
   </si>
@@ -275,14 +318,171 @@
     <t>print()</t>
   </si>
   <si>
-    <t>print( "cualquier texto " + str(x) )</t>
+    <r>
+      <t xml:space="preserve">print( "cualquier texto " + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>str(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t>input()</t>
+  </si>
+  <si>
+    <t>Operadores de decisión</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>texto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = input( "Introduce aquí tu nombre: " )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>texto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es una str, pero podría cambiarse a integer con int()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se interpreta como otra condición, si no se cumple la</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">primera, entonces evalua lo de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sentencia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and, or</t>
+    </r>
+  </si>
+  <si>
+    <t>if : elif : else :</t>
+  </si>
+  <si>
+    <t>Funciones matemáticas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,19 +510,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -707,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:P25"/>
+  <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,30 +1047,63 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>19</v>
       </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/00.Notas/Notas.xlsx
+++ b/00.Notas/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\r-basic\00.Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA8BEB-F01A-428B-A030-778816AE92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD1A78-B5D1-48E8-BF61-817B93A45C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7764847-AF0A-42EE-A5C9-6421E13196DD}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Operaciones</t>
   </si>
@@ -476,6 +476,21 @@
   </si>
   <si>
     <t>Funciones matemáticas</t>
+  </si>
+  <si>
+    <t>exp, log(x), log(x,a)</t>
+  </si>
+  <si>
+    <t>sin, cos, tan</t>
+  </si>
+  <si>
+    <t>El argumento es en radianes</t>
+  </si>
+  <si>
+    <t>math.radians(), math.degrees()</t>
+  </si>
+  <si>
+    <t>gamma</t>
   </si>
 </sst>
 </file>
@@ -894,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C72CEDF-56BB-4637-ABF0-1E84D81DEC3A}">
-  <dimension ref="B2:P28"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,6 +1119,31 @@
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
